--- a/docs/plan_ip.xlsx
+++ b/docs/plan_ip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\openstack\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CA744F-703F-44D5-A182-6C8E2672273A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D32A47-7C6C-4460-81CF-64841E8D08CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3017" yWindow="3017" windowWidth="19286" windowHeight="12232" xr2:uid="{EE76CCEB-0AE1-465E-8763-46147FE575F0}"/>
+    <workbookView xWindow="1131" yWindow="1131" windowWidth="19286" windowHeight="12232" xr2:uid="{EE76CCEB-0AE1-465E-8763-46147FE575F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Hostname</t>
   </si>
@@ -91,24 +91,6 @@
   </si>
   <si>
     <t>192.168.20.184</t>
-  </si>
-  <si>
-    <t>object1</t>
-  </si>
-  <si>
-    <t>10.10.10.40</t>
-  </si>
-  <si>
-    <t>192.168.20.185</t>
-  </si>
-  <si>
-    <t>object2</t>
-  </si>
-  <si>
-    <t>10.10.10.42</t>
-  </si>
-  <si>
-    <t>192.168.20.186</t>
   </si>
 </sst>
 </file>
@@ -198,17 +180,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F7085A2B-1F49-4321-AD14-0310E43B5280}" name="Tableau1" displayName="Tableau1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:H7" xr:uid="{D86848C0-58FD-4DEB-A48C-ECFC0C90D159}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F7085A2B-1F49-4321-AD14-0310E43B5280}" name="Tableau1" displayName="Tableau1" ref="A1:H5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H5" xr:uid="{D86848C0-58FD-4DEB-A48C-ECFC0C90D159}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4558EF41-264C-4C8E-8873-5E42197B8F34}" name="Hostname" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{7BF3ABE5-3BFC-4889-AE23-BD2172016603}" name="RAM" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{03EA1CA0-C49B-4BBC-BC46-4222D6301300}" name="vCPU" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{DA0F80DB-971E-4A68-85CC-11646EE81B4C}" name="interface 1" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{AE94BBAC-BB95-4DCD-A906-193BC8E0F3E4}" name="interface 2" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{3EF1FC35-8423-42FB-B0F7-76EA8E2ED761}" name="Disque 1" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{011F0143-C52B-42BA-A40C-1B190E9B88F3}" name="Disque 2" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{3FB5FE94-29B5-412E-AE6F-026878394F7D}" name="Disque 3" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4558EF41-264C-4C8E-8873-5E42197B8F34}" name="Hostname" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7BF3ABE5-3BFC-4889-AE23-BD2172016603}" name="RAM" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{03EA1CA0-C49B-4BBC-BC46-4222D6301300}" name="vCPU" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{DA0F80DB-971E-4A68-85CC-11646EE81B4C}" name="interface 1" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{AE94BBAC-BB95-4DCD-A906-193BC8E0F3E4}" name="interface 2" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{3EF1FC35-8423-42FB-B0F7-76EA8E2ED761}" name="Disque 1" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{011F0143-C52B-42BA-A40C-1B190E9B88F3}" name="Disque 2" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{3FB5FE94-29B5-412E-AE6F-026878394F7D}" name="Disque 3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -514,7 +496,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -643,57 +625,25 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1">
-        <v>50</v>
-      </c>
-      <c r="G6" s="1">
-        <v>50</v>
-      </c>
-      <c r="H6" s="1">
-        <v>50</v>
-      </c>
+    <row r="6" spans="1:8" ht="11.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1">
-        <v>50</v>
-      </c>
-      <c r="G7" s="1">
-        <v>50</v>
-      </c>
-      <c r="H7" s="1">
-        <v>50</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
